--- a/template.xlsx
+++ b/template.xlsx
@@ -450,37 +450,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>OrderDate</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rep</t>
+          <t>bmi</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>children</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>smoker</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unit Cost</t>
+          <t>region</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>charges</t>
         </is>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -450,37 +450,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>OrderDate</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bmi</t>
+          <t>Rep</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>Item</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>smoker</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Unit Cost</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>charges</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
